--- a/jd.xlsx
+++ b/jd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>react</t>
   </si>
@@ -30,10 +30,49 @@
     <t>node</t>
   </si>
   <si>
+    <t>h5、快应用及混合开发</t>
+  </si>
+  <si>
     <t>性能优化</t>
   </si>
   <si>
     <t>个人学习</t>
+  </si>
+  <si>
+    <t>提高首屏加载速度</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>减少打包体积</t>
+  </si>
+  <si>
+    <t>博客</t>
+  </si>
+  <si>
+    <t>加快打包速度</t>
+  </si>
+  <si>
+    <t>代码习惯</t>
+  </si>
+  <si>
+    <t>页面优化方案</t>
+  </si>
+  <si>
+    <t>工作以外的技能及作品</t>
+  </si>
+  <si>
+    <t>node基础</t>
+  </si>
+  <si>
+    <t>快应用框架：quickapp</t>
+  </si>
+  <si>
+    <t>提高代码效率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node框架：egg、koa、nest、Express、meteor、sails、fastify、loopback、hapi、polemo </t>
   </si>
 </sst>
 </file>
@@ -46,7 +85,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +94,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -62,6 +137,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -71,21 +147,62 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,45 +217,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -147,60 +225,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,115 +247,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,67 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +438,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -426,24 +467,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,11 +491,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,10 +523,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -501,8 +533,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,154 +543,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1008,23 +1043,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="36.25" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.5" customHeight="1" spans="1:6">
+    <row r="1" ht="26.5" customHeight="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1042,6 +1078,9 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="26.5" customHeight="1"/>
@@ -1051,12 +1090,66 @@
     <row r="6" ht="26.5" customHeight="1"/>
     <row r="7" ht="26.5" customHeight="1"/>
     <row r="8" ht="26.5" customHeight="1"/>
-    <row r="9" ht="26.5" customHeight="1"/>
-    <row r="10" ht="26.5" customHeight="1"/>
-    <row r="11" ht="26.5" customHeight="1"/>
-    <row r="12" ht="26.5" customHeight="1"/>
-    <row r="13" ht="26.5" customHeight="1"/>
-    <row r="14" ht="26.5" customHeight="1"/>
+    <row r="9" ht="26.5" customHeight="1" spans="4:7">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="26.5" customHeight="1" spans="4:7">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="26.5" customHeight="1" spans="4:7">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="26.5" customHeight="1" spans="4:7">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="80" customHeight="1" spans="4:7">
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" ht="85" customHeight="1" spans="4:7">
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
     <row r="15" ht="26.5" customHeight="1"/>
     <row r="16" ht="26.5" customHeight="1"/>
     <row r="17" ht="26.5" customHeight="1"/>

--- a/jd.xlsx
+++ b/jd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>react</t>
   </si>
@@ -36,6 +36,9 @@
     <t>性能优化</t>
   </si>
   <si>
+    <t>前端基础</t>
+  </si>
+  <si>
     <t>个人学习</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
     <t>工作以外的技能及作品</t>
   </si>
   <si>
+    <t xml:space="preserve">框架：uniapp / wepy / mpvue / taro </t>
+  </si>
+  <si>
     <t>node基础</t>
   </si>
   <si>
@@ -72,7 +78,25 @@
     <t>提高代码效率</t>
   </si>
   <si>
+    <t>vue版本更新内容</t>
+  </si>
+  <si>
+    <t>UI组件库：WeUI/iView/ZanUI/MinUI/Wux/ColorUI</t>
+  </si>
+  <si>
     <t xml:space="preserve">node框架：egg、koa、nest、Express、meteor、sails、fastify、loopback、hapi、polemo </t>
+  </si>
+  <si>
+    <t>vue关联：vue-router/vuex/</t>
+  </si>
+  <si>
+    <t>react UI组件库：Ant-design、Material-UI、React-Bootstrap、SemanticUI、React Desktop</t>
+  </si>
+  <si>
+    <t>Vue组件库：Element UI、vuetify、iView、vux、mintui、vant、ant-design-vue、cube-ui</t>
+  </si>
+  <si>
+    <t>技能掌握情况：                      D：未使用过                        C: 使用过                         B：有独立开发项目经验              A: 熟悉源码</t>
   </si>
 </sst>
 </file>
@@ -80,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,14 +118,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -109,20 +155,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -130,16 +163,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,33 +180,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,14 +196,28 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,17 +225,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,14 +240,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,24 +271,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -277,96 +397,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,54 +452,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,11 +465,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,17 +506,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,30 +530,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -538,6 +538,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -546,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,139 +582,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1043,44 +1070,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="36.25" customWidth="1"/>
-    <col min="5" max="5" width="29.5" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="31.875" customWidth="1"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.25" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.5" customHeight="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" ht="26.5" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" ht="26.5" customHeight="1"/>
@@ -1090,74 +1122,98 @@
     <row r="6" ht="26.5" customHeight="1"/>
     <row r="7" ht="26.5" customHeight="1"/>
     <row r="8" ht="26.5" customHeight="1"/>
-    <row r="9" ht="26.5" customHeight="1" spans="4:7">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1" t="s">
+    <row r="9" ht="26.5" customHeight="1" spans="4:8">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="H9" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="10" ht="26.5" customHeight="1" spans="4:7">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1" t="s">
+    <row r="10" ht="26.5" customHeight="1" spans="4:8">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" ht="26.5" customHeight="1" spans="4:7">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1" t="s">
+    <row r="11" ht="26.5" customHeight="1" spans="4:8">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="H11" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="12" ht="26.5" customHeight="1" spans="4:7">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="1" t="s">
+    <row r="12" ht="26.5" customHeight="1" spans="4:8">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="13" ht="80" customHeight="1" spans="4:7">
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
+    <row r="13" ht="80" customHeight="1" spans="3:7">
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="2"/>
     </row>
-    <row r="14" ht="85" customHeight="1" spans="4:7">
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+    <row r="14" ht="85" customHeight="1" spans="2:7">
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
-    <row r="15" ht="26.5" customHeight="1"/>
-    <row r="16" ht="26.5" customHeight="1"/>
+    <row r="15" ht="57" customHeight="1" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" ht="108" customHeight="1" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="17" ht="26.5" customHeight="1"/>
     <row r="18" ht="26.5" customHeight="1"/>
     <row r="19" ht="26.5" customHeight="1"/>
     <row r="20" ht="26.5" customHeight="1"/>
     <row r="21" ht="26.5" customHeight="1"/>
-    <row r="22" ht="26.5" customHeight="1"/>
+    <row r="22" ht="87" customHeight="1" spans="4:4">
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="23" ht="26.5" customHeight="1"/>
     <row r="24" ht="26.5" customHeight="1"/>
     <row r="25" ht="26.5" customHeight="1"/>

--- a/jd.xlsx
+++ b/jd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="122">
+  <si>
+    <t>技能掌握情况：D：不了解 C: 了解未使用 B: 使用过  A: 熟悉原理</t>
+  </si>
   <si>
     <t>react</t>
   </si>
@@ -33,70 +36,352 @@
     <t>h5、快应用及混合开发</t>
   </si>
   <si>
+    <t>前端基础</t>
+  </si>
+  <si>
     <t>性能优化</t>
   </si>
   <si>
-    <t>前端基础</t>
-  </si>
-  <si>
     <t>个人学习</t>
   </si>
   <si>
+    <t>初级</t>
+  </si>
+  <si>
+    <t>如何定义全局变量</t>
+  </si>
+  <si>
+    <t>如何实现高并发</t>
+  </si>
+  <si>
+    <t>HTML 语义化</t>
+  </si>
+  <si>
     <t>提高首屏加载速度</t>
   </si>
   <si>
     <t>github</t>
   </si>
   <si>
+    <t>react生命周期</t>
+  </si>
+  <si>
+    <t>Vue生命周期</t>
+  </si>
+  <si>
+    <t>如何自定义导航栏</t>
+  </si>
+  <si>
+    <t>异步I/O</t>
+  </si>
+  <si>
+    <t>localstorage、sessionstorage、cookie、WebSQL的区别</t>
+  </si>
+  <si>
+    <t>基本数据类型及数据类型检测</t>
+  </si>
+  <si>
     <t>减少打包体积</t>
   </si>
   <si>
     <t>博客</t>
   </si>
   <si>
+    <t>组件之间的通信</t>
+  </si>
+  <si>
+    <t>父子组件传参</t>
+  </si>
+  <si>
+    <t>showLoading 和showToast是否可以同时使用</t>
+  </si>
+  <si>
+    <t>事件循环以及其优先级</t>
+  </si>
+  <si>
+    <t>canvas</t>
+  </si>
+  <si>
+    <t>深拷贝</t>
+  </si>
+  <si>
     <t>加快打包速度</t>
   </si>
   <si>
     <t>代码习惯</t>
   </si>
   <si>
+    <t>key的作用</t>
+  </si>
+  <si>
+    <t>keep-alive组件的作用</t>
+  </si>
+  <si>
+    <t>小程序扫码的限制</t>
+  </si>
+  <si>
+    <t>http请求报文</t>
+  </si>
+  <si>
+    <t>手机屏幕适配的解决方案</t>
+  </si>
+  <si>
+    <t>apply、call、bind区别</t>
+  </si>
+  <si>
     <t>页面优化方案</t>
   </si>
   <si>
     <t>工作以外的技能及作品</t>
   </si>
   <si>
+    <t>react单向数据流</t>
+  </si>
+  <si>
+    <t>filters的作用</t>
+  </si>
+  <si>
+    <t>怎么调起小程序授权，有哪些限制</t>
+  </si>
+  <si>
+    <t>什么是同源策略</t>
+  </si>
+  <si>
+    <t>Hybrid混合开发、快应用与原生APP优缺点</t>
+  </si>
+  <si>
+    <t>原型链</t>
+  </si>
+  <si>
+    <t>SEO优化</t>
+  </si>
+  <si>
+    <t>什么是高阶组件（HOC），常用的高阶组件有哪些</t>
+  </si>
+  <si>
+    <t>forceUpdate的作用</t>
+  </si>
+  <si>
+    <t>微信原生组件有哪些？层级限制如何解决</t>
+  </si>
+  <si>
+    <t>V8的垃圾回收机制</t>
+  </si>
+  <si>
+    <t>快应用：quickapp</t>
+  </si>
+  <si>
+    <t>同步和异步</t>
+  </si>
+  <si>
+    <t>提高代码效率</t>
+  </si>
+  <si>
+    <t>什么是受控组件和非受控组件</t>
+  </si>
+  <si>
+    <t>Vue2数据双向绑定的原理</t>
+  </si>
+  <si>
+    <t>路由切换的几种方法及应用场景</t>
+  </si>
+  <si>
+    <t>Buffer的内存分配机制</t>
+  </si>
+  <si>
+    <t>浏览器页面渲染过程</t>
+  </si>
+  <si>
+    <t>遇到过的安全性问题及防御措施</t>
+  </si>
+  <si>
+    <t>Redux提供的组件都有哪些</t>
+  </si>
+  <si>
+    <t>vue-router路由传参的几种方式</t>
+  </si>
+  <si>
+    <t>小程序授权登录的流程</t>
+  </si>
+  <si>
+    <t>https通信流程</t>
+  </si>
+  <si>
+    <t>中级</t>
+  </si>
+  <si>
+    <t>react Hooks</t>
+  </si>
+  <si>
+    <t>路由切换的几种方式:push replace go</t>
+  </si>
+  <si>
+    <t>小程序支付流程及限制</t>
+  </si>
+  <si>
+    <t>进程和线程的区别</t>
+  </si>
+  <si>
+    <t>vuex有哪几种属性</t>
+  </si>
+  <si>
+    <t>云开发</t>
+  </si>
+  <si>
+    <t xml:space="preserve">常用的node框架egg、koa、nest、Express、meteor、sails、fastify、loopback、hapi、polemo </t>
+  </si>
+  <si>
+    <t>如何区分有状态和无状态组件</t>
+  </si>
+  <si>
+    <t>actions与mutations异同</t>
+  </si>
+  <si>
     <t xml:space="preserve">框架：uniapp / wepy / mpvue / taro </t>
   </si>
   <si>
-    <t>node基础</t>
-  </si>
-  <si>
-    <t>快应用框架：quickapp</t>
-  </si>
-  <si>
-    <t>提高代码效率</t>
-  </si>
-  <si>
-    <t>vue版本更新内容</t>
+    <t>相比vue,react有什么优势</t>
   </si>
   <si>
     <t>UI组件库：WeUI/iView/ZanUI/MinUI/Wux/ColorUI</t>
   </si>
   <si>
-    <t xml:space="preserve">node框架：egg、koa、nest、Express、meteor、sails、fastify、loopback、hapi、polemo </t>
-  </si>
-  <si>
-    <t>vue关联：vue-router/vuex/</t>
+    <t>webpack打包的过程</t>
+  </si>
+  <si>
+    <t>react的虚拟dom实现原理</t>
+  </si>
+  <si>
+    <t>浏览器缓存有哪些</t>
+  </si>
+  <si>
+    <t>react diff原理</t>
+  </si>
+  <si>
+    <t>常用的事件修饰符</t>
+  </si>
+  <si>
+    <t>Promise的使用和原理</t>
+  </si>
+  <si>
+    <t>react-router的原理</t>
+  </si>
+  <si>
+    <t>$nextTick的作用</t>
+  </si>
+  <si>
+    <t>高级</t>
+  </si>
+  <si>
+    <t>redux的工作流程</t>
+  </si>
+  <si>
+    <t>自定义指令</t>
+  </si>
+  <si>
+    <t>实现继承的方法</t>
+  </si>
+  <si>
+    <t>redux中间件</t>
+  </si>
+  <si>
+    <t>虚拟DOM和DIFF算法</t>
+  </si>
+  <si>
+    <t>async/await和Generator</t>
+  </si>
+  <si>
+    <t>路由懒加载</t>
+  </si>
+  <si>
+    <t>React插槽的使用场景</t>
+  </si>
+  <si>
+    <t>$router和$route的区别</t>
+  </si>
+  <si>
+    <t>http请求的过程</t>
+  </si>
+  <si>
+    <t>React Intl是什么原理</t>
+  </si>
+  <si>
+    <t>钩子函数：beforeEach、beforeResolve、afterEach的使用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">什么是Flux </t>
+  </si>
+  <si>
+    <t>算法</t>
+  </si>
+  <si>
+    <t>什么是渲染劫持</t>
+  </si>
+  <si>
+    <t>宏任务和微任务</t>
+  </si>
+  <si>
+    <t>loadable和suspense组件的使用</t>
+  </si>
+  <si>
+    <t>useEffect和useLayoutEffect有什么区别？</t>
+  </si>
+  <si>
+    <t>Vue实例化的执行过程</t>
+  </si>
+  <si>
+    <t>使用PropTypes和Flow有什么区别？</t>
+  </si>
+  <si>
+    <t>列表渲染中key的作用</t>
+  </si>
+  <si>
+    <t>数据如何通过 Redux流动</t>
+  </si>
+  <si>
+    <t>watch实现原理</t>
+  </si>
+  <si>
+    <t>redux-saga的原理</t>
+  </si>
+  <si>
+    <t>$nextTick原理和用途</t>
+  </si>
+  <si>
+    <t>redux-saga和redux-thunk有什么本质的区别</t>
+  </si>
+  <si>
+    <t>Vue3生命周期</t>
   </si>
   <si>
     <t>react UI组件库：Ant-design、Material-UI、React-Bootstrap、SemanticUI、React Desktop</t>
   </si>
   <si>
-    <t>Vue组件库：Element UI、vuetify、iView、vux、mintui、vant、ant-design-vue、cube-ui</t>
-  </si>
-  <si>
-    <t>技能掌握情况：                      D：未使用过                        C: 使用过                         B：有独立开发项目经验              A: 熟悉源码</t>
+    <t>Vue2和Vue3数据绑定的异同</t>
+  </si>
+  <si>
+    <t>mixin的用法</t>
+  </si>
+  <si>
+    <t>mergeProps的作用</t>
+  </si>
+  <si>
+    <t>异步组件的定义：defineAsyncComponent</t>
+  </si>
+  <si>
+    <t>provide和inject 用法</t>
+  </si>
+  <si>
+    <t>嵌套命名视图的使用</t>
+  </si>
+  <si>
+    <t>动态路由+权限分配的实现方法</t>
+  </si>
+  <si>
+    <t>state状态批量使用</t>
+  </si>
+  <si>
+    <t>getters的作用</t>
   </si>
 </sst>
 </file>
@@ -104,12 +389,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,8 +403,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,14 +447,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -147,9 +454,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,21 +464,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,45 +493,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,8 +516,46 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,31 +564,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,151 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,17 +764,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,7 +803,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,20 +823,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +852,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,10 +869,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,145 +881,172 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1070,164 +1396,617 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.00833333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.25" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="8" width="30.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.00833333333333" style="3"/>
+    <col min="10" max="32" width="9" style="2"/>
+    <col min="33" max="16384" width="9.00833333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.5" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="39" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:9">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="26.5" customHeight="1"/>
-    <row r="3" ht="26.5" customHeight="1"/>
-    <row r="4" ht="26.5" customHeight="1"/>
-    <row r="5" ht="26.5" customHeight="1"/>
-    <row r="6" ht="26.5" customHeight="1"/>
-    <row r="7" ht="26.5" customHeight="1"/>
-    <row r="8" ht="26.5" customHeight="1"/>
-    <row r="9" ht="26.5" customHeight="1" spans="4:8">
-      <c r="D9" s="2"/>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="30" customHeight="1" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" ht="36" customHeight="1" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" ht="42" customHeight="1" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" ht="26.5" customHeight="1" spans="4:8">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" ht="26.5" customHeight="1" spans="4:8">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" ht="26.5" customHeight="1" spans="4:8">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="80" customHeight="1" spans="3:7">
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" ht="85" customHeight="1" spans="2:7">
-      <c r="B14" s="1" t="s">
+      <c r="F9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:6">
+      <c r="A11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" ht="57" customHeight="1" spans="2:2">
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" ht="108" customHeight="1" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" ht="26.5" customHeight="1"/>
-    <row r="18" ht="26.5" customHeight="1"/>
-    <row r="19" ht="26.5" customHeight="1"/>
-    <row r="20" ht="26.5" customHeight="1"/>
-    <row r="21" ht="26.5" customHeight="1"/>
-    <row r="22" ht="87" customHeight="1" spans="4:4">
-      <c r="D22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" ht="26.5" customHeight="1"/>
-    <row r="24" ht="26.5" customHeight="1"/>
-    <row r="25" ht="26.5" customHeight="1"/>
-    <row r="26" ht="26.5" customHeight="1"/>
-    <row r="27" ht="26.5" customHeight="1"/>
-    <row r="28" ht="26.5" customHeight="1"/>
-    <row r="29" ht="26.5" customHeight="1"/>
-    <row r="30" ht="26.5" customHeight="1"/>
-    <row r="31" ht="26.5" customHeight="1"/>
-    <row r="32" ht="26.5" customHeight="1"/>
-    <row r="33" ht="26.5" customHeight="1"/>
-    <row r="34" ht="26.5" customHeight="1"/>
-    <row r="35" ht="26.5" customHeight="1"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" ht="63" customHeight="1" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:8">
+      <c r="A15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="1:8">
+      <c r="A16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="1:8">
+      <c r="A17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="1:8">
+      <c r="A18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="1:8">
+      <c r="A19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="1:8">
+      <c r="A20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:8">
+      <c r="A21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="1:8">
+      <c r="A22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="1:8">
+      <c r="A23" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" ht="30" customHeight="1" spans="1:8">
+      <c r="A24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" ht="30" customHeight="1" spans="1:8">
+      <c r="A25" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" ht="40" customHeight="1" spans="1:2">
+      <c r="A26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" ht="30" customHeight="1" spans="1:2">
+      <c r="A27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" ht="30" customHeight="1" spans="1:2">
+      <c r="A28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="1:5">
+      <c r="A29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" ht="42" customHeight="1" spans="1:2">
+      <c r="A30" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" ht="58" customHeight="1" spans="1:2">
+      <c r="A31" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" ht="30" customHeight="1" spans="2:2">
+      <c r="B32" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" ht="30" customHeight="1" spans="2:2">
+      <c r="B33" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" ht="30" customHeight="1" spans="2:2">
+      <c r="B34" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" ht="30" customHeight="1" spans="2:2">
+      <c r="B35" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" ht="30" customHeight="1" spans="2:2">
+      <c r="B36" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" ht="30" customHeight="1" spans="2:2">
+      <c r="B37" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" ht="30" customHeight="1" spans="2:2">
+      <c r="B38" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" ht="30" customHeight="1" spans="2:2">
+      <c r="B39" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" ht="30" customHeight="1" spans="2:2">
+      <c r="B40" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" ht="30" customHeight="1" spans="2:2">
+      <c r="B41" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" ht="45" customHeight="1"/>
+    <row r="43" ht="37" customHeight="1"/>
+    <row r="44" ht="37" customHeight="1"/>
+    <row r="45" ht="33" customHeight="1"/>
+    <row r="46" ht="37" customHeight="1"/>
+    <row r="47" ht="64" customHeight="1"/>
+    <row r="48" ht="26.5" customHeight="1"/>
+    <row r="49" ht="26.5" customHeight="1"/>
+    <row r="50" ht="26.5" customHeight="1"/>
+    <row r="51" ht="26.5" customHeight="1"/>
+    <row r="52" ht="26.5" customHeight="1"/>
+    <row r="53" ht="26.5" customHeight="1"/>
+    <row r="54" ht="26.5" customHeight="1"/>
+    <row r="55" ht="26.5" customHeight="1"/>
+    <row r="56" ht="26.5" customHeight="1"/>
+    <row r="57" ht="26.5" customHeight="1"/>
+    <row r="58" ht="26.5" customHeight="1"/>
+    <row r="59" ht="26.5" customHeight="1"/>
+    <row r="60" ht="26.5" customHeight="1"/>
+    <row r="61" ht="26.5" customHeight="1"/>
+    <row r="62" ht="26.5" customHeight="1"/>
+    <row r="63" ht="26.5" customHeight="1"/>
+    <row r="64" ht="26.5" customHeight="1"/>
+    <row r="65" ht="26.5" customHeight="1"/>
+    <row r="66" ht="26.5" customHeight="1"/>
+    <row r="67" ht="26.5" customHeight="1"/>
+    <row r="68" ht="26.5" customHeight="1"/>
+    <row r="69" ht="26.5" customHeight="1"/>
+    <row r="70" ht="26.5" customHeight="1"/>
+    <row r="71" ht="26.5" customHeight="1"/>
+    <row r="72" ht="26.5" customHeight="1"/>
+    <row r="73" ht="26.5" customHeight="1"/>
+    <row r="74" ht="26.5" customHeight="1"/>
+    <row r="75" ht="26.5" customHeight="1"/>
+    <row r="76" ht="26.5" customHeight="1"/>
+    <row r="77" ht="26.5" customHeight="1"/>
+    <row r="78" ht="26.5" customHeight="1"/>
+    <row r="79" ht="26.5" customHeight="1"/>
+    <row r="80" ht="26.5" customHeight="1"/>
+    <row r="81" ht="26.5" customHeight="1"/>
+    <row r="82" ht="26.5" customHeight="1"/>
+    <row r="83" ht="26.5" customHeight="1"/>
+    <row r="84" ht="26.5" customHeight="1"/>
+    <row r="85" ht="26.5" customHeight="1"/>
+    <row r="86" ht="26.5" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
